--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\45_Martin_SMS_Sender\Desktop App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE558A-A5A8-42EA-B5D1-324BD5972813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4AD2AF-13BF-4B7E-9D5D-5B2E0B372EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{EA30EE3E-524B-467F-91CC-46DD82B23B1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Service</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>vonage</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +596,13 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
